--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1021.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1021.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152378657092971</v>
+        <v>1.395439028739929</v>
       </c>
       <c r="B1">
-        <v>3.477657994202004</v>
+        <v>1.84431004524231</v>
       </c>
       <c r="C1">
-        <v>3.465112988208546</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.169191596648039</v>
+        <v>1.903853535652161</v>
       </c>
       <c r="E1">
-        <v>1.06914089415434</v>
+        <v>0.7334681749343872</v>
       </c>
     </row>
   </sheetData>
